--- a/user-data/uganda-water-women-position/uganda-water-women-position.xlsx
+++ b/user-data/uganda-water-women-position/uganda-water-women-position.xlsx
@@ -721,7 +721,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 30</t>
+    <t xml:space="preserve">Source: 31</t>
   </si>
   <si>
     <t xml:space="preserve"/>
